--- a/GaoMengWeb/ExcelFiles/template/学生批量导入.xlsx
+++ b/GaoMengWeb/ExcelFiles/template/学生批量导入.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siren\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liguochao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB66DCBD-A340-442E-AD57-C72DC44CE1DB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C6C9A6-2671-4E21-B17A-9B7F83CBD3C7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" xr2:uid="{7D1E5335-6C52-44B5-AB69-0B58B37F117E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,14 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毕业院校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,28 +103,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北理工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清华大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>专业方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程与管理</t>
   </si>
 </sst>
 </file>
@@ -496,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832445B8-956F-4E58-86F8-495E9E1A9D46}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -507,7 +482,7 @@
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,248 +493,203 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14211001</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14211002</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14211003</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14211004</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14211005</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14211006</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14211007</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14211008</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14211009</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14211010</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14211011</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14211012</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14211013</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14211014</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
